--- a/track1.xlsx
+++ b/track1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Program\StripDivide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{497DFA6E-0D71-4418-8C39-C631F87F94F1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6DF1E993-2FDA-48DB-89C2-12EC5EEEFAAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7824" xr2:uid="{3B8143D1-43C4-4E95-B604-B7406A9F6A54}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B4640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3945"/>
+      <selection activeCell="A2" sqref="A2:B497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -414,3970 +414,3970 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>116.60941526869235</v>
+        <v>116.5874436920671</v>
       </c>
       <c r="B2">
-        <v>40.230458751692709</v>
+        <v>40.23897208247039</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>116.60941414211831</v>
+        <v>116.58743970342718</v>
       </c>
       <c r="B3">
-        <v>40.230489376005316</v>
+        <v>40.238941601152213</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>116.60941301554325</v>
+        <v>116.58743571479168</v>
       </c>
       <c r="B4">
-        <v>40.230520000318641</v>
+        <v>40.238911119835294</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>116.60941188896716</v>
+        <v>116.58743172616056</v>
       </c>
       <c r="B5">
-        <v>40.230550624632691</v>
+        <v>40.238880638519667</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>116.60941076239</v>
+        <v>116.5874277375339</v>
       </c>
       <c r="B6">
-        <v>40.230581248947452</v>
+        <v>40.238850157205327</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>116.6094096358118</v>
+        <v>116.58742374891162</v>
       </c>
       <c r="B7">
-        <v>40.230611873262959</v>
+        <v>40.238819675892302</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>116.60940850923249</v>
+        <v>116.58741976029377</v>
       </c>
       <c r="B8">
-        <v>40.230642497579154</v>
+        <v>40.238789194580534</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>116.60940738265219</v>
+        <v>116.58741577168037</v>
       </c>
       <c r="B9">
-        <v>40.230673121896089</v>
+        <v>40.238758713270066</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>116.60940625607083</v>
+        <v>116.58741178307135</v>
       </c>
       <c r="B10">
-        <v>40.230703746213727</v>
+        <v>40.238728231960899</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>116.60940512948839</v>
+        <v>116.58740779446676</v>
       </c>
       <c r="B11">
-        <v>40.230734370532105</v>
+        <v>40.238697750653017</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>116.6094040029049</v>
+        <v>116.58740380586659</v>
       </c>
       <c r="B12">
-        <v>40.230764994851206</v>
+        <v>40.238667269346415</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>116.60940287632035</v>
+        <v>116.58739981727085</v>
       </c>
       <c r="B13">
-        <v>40.230795619171005</v>
+        <v>40.238636788041113</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>116.60940174973479</v>
+        <v>116.58739582867953</v>
       </c>
       <c r="B14">
-        <v>40.230826243491542</v>
+        <v>40.238606306737083</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>116.60940062314815</v>
+        <v>116.58739184009258</v>
       </c>
       <c r="B15">
-        <v>40.230856867812783</v>
+        <v>40.23857582543436</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>116.60939949656041</v>
+        <v>116.58738785151007</v>
       </c>
       <c r="B16">
-        <v>40.230887492134769</v>
+        <v>40.238545344132916</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>116.60939836997164</v>
+        <v>116.58738386293203</v>
       </c>
       <c r="B17">
-        <v>40.230918116457453</v>
+        <v>40.238514862832751</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>116.60939724338185</v>
+        <v>116.58737987435836</v>
       </c>
       <c r="B18">
-        <v>40.230948740780867</v>
+        <v>40.238484381533894</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>116.60939611679099</v>
+        <v>116.5873758857891</v>
       </c>
       <c r="B19">
-        <v>40.230979365105014</v>
+        <v>40.23845390023633</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>116.60939499019906</v>
+        <v>116.58737189722427</v>
       </c>
       <c r="B20">
-        <v>40.231009989429872</v>
+        <v>40.23842341894003</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>116.60939386360613</v>
+        <v>116.58736790866388</v>
       </c>
       <c r="B21">
-        <v>40.231040613755439</v>
+        <v>40.238392937645031</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>116.60939273701206</v>
+        <v>116.58736392010788</v>
       </c>
       <c r="B22">
-        <v>40.231071238081725</v>
+        <v>40.238362456351318</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>116.60939161041699</v>
+        <v>116.58735993155634</v>
       </c>
       <c r="B23">
-        <v>40.231101862408778</v>
+        <v>40.238331975058884</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>116.60939048382089</v>
+        <v>116.58735594300916</v>
       </c>
       <c r="B24">
-        <v>40.231132486736506</v>
+        <v>40.238301493767757</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>116.60938935722368</v>
+        <v>116.58735195446641</v>
       </c>
       <c r="B25">
-        <v>40.231163111064973</v>
+        <v>40.238271012477909</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>116.60938823062547</v>
+        <v>116.58734796592815</v>
       </c>
       <c r="B26">
-        <v>40.231193735394157</v>
+        <v>40.238240531189341</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>116.60938710402615</v>
+        <v>116.58734397739421</v>
       </c>
       <c r="B27">
-        <v>40.231224359724067</v>
+        <v>40.238210049902079</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>116.6093859774258</v>
+        <v>116.58733998886476</v>
       </c>
       <c r="B28">
-        <v>40.231254984054694</v>
+        <v>40.238179568616097</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>116.60938485082444</v>
+        <v>116.58733600033966</v>
       </c>
       <c r="B29">
-        <v>40.231285608386059</v>
+        <v>40.238149087331387</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>116.609383724222</v>
+        <v>116.587332011819</v>
       </c>
       <c r="B30">
-        <v>40.231316232718108</v>
+        <v>40.238118606047969</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>116.60938259761846</v>
+        <v>116.5873280233028</v>
       </c>
       <c r="B31">
-        <v>40.231346857050916</v>
+        <v>40.238088124765852</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>116.60938147101392</v>
+        <v>116.58732491779159</v>
       </c>
       <c r="B32">
-        <v>40.231377481384428</v>
+        <v>40.238096643686063</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>116.60938034440828</v>
+        <v>116.58732506625428</v>
       </c>
       <c r="B33">
-        <v>40.231408105718664</v>
+        <v>40.238105486641807</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>116.60937921780159</v>
+        <v>116.58732845666461</v>
       </c>
       <c r="B34">
-        <v>40.231438730053625</v>
+        <v>40.238113937229471</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>116.60937809119388</v>
+        <v>116.58733481435461</v>
       </c>
       <c r="B35">
-        <v>40.231469354389304</v>
+        <v>40.23812131083379</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>116.60937696458511</v>
+        <v>116.58734362426559</v>
       </c>
       <c r="B36">
-        <v>40.231499978725729</v>
+        <v>40.23812701009102</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>116.60937583797528</v>
+        <v>116.58735417267397</v>
       </c>
       <c r="B37">
-        <v>40.231530603062851</v>
+        <v>40.238130573283158</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>116.6093747113644</v>
+        <v>116.58736560501205</v>
       </c>
       <c r="B38">
-        <v>40.231561227400711</v>
+        <v>40.238131711743037</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>116.60937358475246</v>
+        <v>116.58737699509948</v>
       </c>
       <c r="B39">
-        <v>40.231591851739275</v>
+        <v>40.238130333239866</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>116.60937245813949</v>
+        <v>116.58738742017688</v>
       </c>
       <c r="B40">
-        <v>40.231622476078563</v>
+        <v>40.238126549451223</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>116.60937133152542</v>
+        <v>116.58739603566323</v>
       </c>
       <c r="B41">
-        <v>40.23165310041859</v>
+        <v>40.238120666915577</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>116.60937020491035</v>
+        <v>116.58740214357952</v>
       </c>
       <c r="B42">
-        <v>40.231683724759328</v>
+        <v>40.23811316219907</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>116.60936907829418</v>
+        <v>116.58740613214817</v>
       </c>
       <c r="B43">
-        <v>40.231714349100798</v>
+        <v>40.23814364349267</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>116.60936795167697</v>
+        <v>116.58741012072129</v>
       </c>
       <c r="B44">
-        <v>40.231744973442979</v>
+        <v>40.238174124787555</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>116.60936682505873</v>
+        <v>116.58741410929878</v>
       </c>
       <c r="B45">
-        <v>40.231775597785884</v>
+        <v>40.238204606083713</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>116.60936569843942</v>
+        <v>116.5874180978807</v>
       </c>
       <c r="B46">
-        <v>40.231806222129514</v>
+        <v>40.23823508738117</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>116.60936457181906</v>
+        <v>116.58742208646703</v>
       </c>
       <c r="B47">
-        <v>40.231836846473882</v>
+        <v>40.238265568679893</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>116.60936344519763</v>
+        <v>116.58742607505779</v>
       </c>
       <c r="B48">
-        <v>40.231867470818962</v>
+        <v>40.238296049979922</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>116.60936231857517</v>
+        <v>116.58743006365299</v>
       </c>
       <c r="B49">
-        <v>40.231898095164759</v>
+        <v>40.238326531281253</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>116.60936119195162</v>
+        <v>116.58743405225256</v>
       </c>
       <c r="B50">
-        <v>40.231928719511288</v>
+        <v>40.238357012583855</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>116.60936006532702</v>
+        <v>116.58743804085657</v>
       </c>
       <c r="B51">
-        <v>40.231959343858534</v>
+        <v>40.23838749388775</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>116.60935893870138</v>
+        <v>116.587442029465</v>
       </c>
       <c r="B52">
-        <v>40.231989968206513</v>
+        <v>40.238417975192938</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>116.60935781207469</v>
+        <v>116.58744601807787</v>
       </c>
       <c r="B53">
-        <v>40.232020592555209</v>
+        <v>40.238448456499405</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>116.60935668544694</v>
+        <v>116.58745000669511</v>
       </c>
       <c r="B54">
-        <v>40.23205121690463</v>
+        <v>40.238478937807173</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>116.60935555881814</v>
+        <v>116.58745399531679</v>
       </c>
       <c r="B55">
-        <v>40.232081841254775</v>
+        <v>40.238509419116198</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>116.6093544321883</v>
+        <v>116.5874579839429</v>
       </c>
       <c r="B56">
-        <v>40.232112465605631</v>
+        <v>40.238539900426538</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>116.60935330555739</v>
+        <v>116.58746197257345</v>
       </c>
       <c r="B57">
-        <v>40.232143089957226</v>
+        <v>40.238570381738164</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>116.60935217892543</v>
+        <v>116.58746596120837</v>
       </c>
       <c r="B58">
-        <v>40.232173714309539</v>
+        <v>40.238600863051076</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>116.6093510522924</v>
+        <v>116.58746994984772</v>
       </c>
       <c r="B59">
-        <v>40.232204338662577</v>
+        <v>40.238631344365274</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>116.60934992565836</v>
+        <v>116.5874739384915</v>
       </c>
       <c r="B60">
-        <v>40.232234963016353</v>
+        <v>40.238661825680758</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>116.60934879902322</v>
+        <v>116.58747792713972</v>
       </c>
       <c r="B61">
-        <v>40.232265587370833</v>
+        <v>40.238692306997535</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>116.60934767238707</v>
+        <v>116.58748191579232</v>
       </c>
       <c r="B62">
-        <v>40.232296211726045</v>
+        <v>40.238722788315606</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>116.60934654574983</v>
+        <v>116.58748590444934</v>
       </c>
       <c r="B63">
-        <v>40.232326836081981</v>
+        <v>40.238753269634962</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>116.60934541911156</v>
+        <v>116.5874898931108</v>
       </c>
       <c r="B64">
-        <v>40.232357460438649</v>
+        <v>40.238783750955605</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>116.60934429247223</v>
+        <v>116.58749388177664</v>
       </c>
       <c r="B65">
-        <v>40.232388084796035</v>
+        <v>40.238814232277555</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>116.60934316583185</v>
+        <v>116.58749787044694</v>
       </c>
       <c r="B66">
-        <v>40.232418709154125</v>
+        <v>40.238844713600777</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>116.60934203919039</v>
+        <v>116.58750185912163</v>
       </c>
       <c r="B67">
-        <v>40.232449333512982</v>
+        <v>40.238875194925278</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>116.60934091254791</v>
+        <v>116.58750584780078</v>
       </c>
       <c r="B68">
-        <v>40.232479957872542</v>
+        <v>40.238905676251079</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>116.60933978590434</v>
+        <v>116.58750983648429</v>
       </c>
       <c r="B69">
-        <v>40.23251058223282</v>
+        <v>40.238936157578188</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>116.60933865925973</v>
+        <v>116.58751382517227</v>
       </c>
       <c r="B70">
-        <v>40.232541206593822</v>
+        <v>40.238966638906568</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>116.60933753261405</v>
+        <v>116.58751636107472</v>
       </c>
       <c r="B71">
-        <v>40.232571830955564</v>
+        <v>40.238953538618929</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>116.60933640596735</v>
+        <v>116.58752149838836</v>
       </c>
       <c r="B72">
-        <v>40.232602455318016</v>
+        <v>40.238946926714881</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>116.60933527931961</v>
+        <v>116.58752885495191</v>
       </c>
       <c r="B73">
-        <v>40.232633079681193</v>
+        <v>40.238941691279109</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>116.60933415267077</v>
+        <v>116.58753783478382</v>
       </c>
       <c r="B74">
-        <v>40.232663704045116</v>
+        <v>40.238938256456308</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>116.60933302602091</v>
+        <v>116.58754771039514</v>
       </c>
       <c r="B75">
-        <v>40.232694328409742</v>
+        <v>40.238936900516222</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>116.60933189936998</v>
+        <v>116.58755768172547</v>
       </c>
       <c r="B76">
-        <v>40.232724952775101</v>
+        <v>40.238937733309378</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>116.60933077271798</v>
+        <v>116.58756694095855</v>
       </c>
       <c r="B77">
-        <v>40.232755577141191</v>
+        <v>40.238940687367602</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>116.60932964606498</v>
+        <v>116.58757473796632</v>
       </c>
       <c r="B78">
-        <v>40.232786201508006</v>
+        <v>40.238945523369985</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>116.60932851941087</v>
+        <v>116.58758044108036</v>
       </c>
       <c r="B79">
-        <v>40.232816825875553</v>
+        <v>40.238951849531475</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>116.60932739275573</v>
+        <v>116.58758358826621</v>
       </c>
       <c r="B80">
-        <v>40.232847450243796</v>
+        <v>40.238959153343487</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>116.60932626609953</v>
+        <v>116.58758395856366</v>
       </c>
       <c r="B81">
-        <v>40.232878074612792</v>
+        <v>40.238961195521647</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>116.60932513944228</v>
+        <v>116.58757996982767</v>
       </c>
       <c r="B82">
-        <v>40.232908698982499</v>
+        <v>40.238930714183077</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>116.60932401278399</v>
+        <v>116.58757598109608</v>
       </c>
       <c r="B83">
-        <v>40.232939323352952</v>
+        <v>40.238900232845793</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>116.60932288612459</v>
+        <v>116.58757199236894</v>
       </c>
       <c r="B84">
-        <v>40.232969947724108</v>
+        <v>40.23886975150981</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>116.60932175946419</v>
+        <v>116.5875680036462</v>
       </c>
       <c r="B85">
-        <v>40.23300057209601</v>
+        <v>40.238839270175127</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>116.60932063280276</v>
+        <v>116.58756401492791</v>
       </c>
       <c r="B86">
-        <v>40.233031196468623</v>
+        <v>40.238808788841723</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>116.60932178148489</v>
+        <v>116.58756002621399</v>
       </c>
       <c r="B87">
-        <v>40.233038840624651</v>
+        <v>40.238778307509605</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>116.60932569458845</v>
+        <v>116.58755603750448</v>
       </c>
       <c r="B88">
-        <v>40.233045928149267</v>
+        <v>40.238747826178773</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>116.60933205510004</v>
+        <v>116.58755204879948</v>
       </c>
       <c r="B89">
-        <v>40.233051884855584</v>
+        <v>40.238717344849235</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>116.6093403477324</v>
+        <v>116.58754806009883</v>
       </c>
       <c r="B90">
-        <v>40.233056228169062</v>
+        <v>40.238686863520975</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>116.60934990066906</v>
+        <v>116.58754407140258</v>
       </c>
       <c r="B91">
-        <v>40.233058606222272</v>
+        <v>40.238656382194016</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>116.60935993999013</v>
+        <v>116.58754008271079</v>
       </c>
       <c r="B92">
-        <v>40.23305882636069</v>
+        <v>40.238625900868342</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>116.60936965237042</v>
+        <v>116.58753609402343</v>
       </c>
       <c r="B93">
-        <v>40.233056870750154</v>
+        <v>40.238595419543977</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>116.60937825097022</v>
+        <v>116.58753210534047</v>
       </c>
       <c r="B94">
-        <v>40.233052897821572</v>
+        <v>40.238564938220875</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>116.60938503918118</v>
+        <v>116.5875281166619</v>
       </c>
       <c r="B95">
-        <v>40.233047229436089</v>
+        <v>40.238534456899075</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>116.60938946706156</v>
+        <v>116.58752412798778</v>
       </c>
       <c r="B96">
-        <v>40.23304032481024</v>
+        <v>40.238503975578546</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>116.60939117589031</v>
+        <v>116.58752013931807</v>
       </c>
       <c r="B97">
-        <v>40.233032743313458</v>
+        <v>40.238473494259324</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>116.60939230252457</v>
+        <v>116.5875161506528</v>
       </c>
       <c r="B98">
-        <v>40.233002118943325</v>
+        <v>40.238443012941381</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>116.60939342915778</v>
+        <v>116.58751216199192</v>
       </c>
       <c r="B99">
-        <v>40.232971494573952</v>
+        <v>40.238412531624732</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>116.6093945557899</v>
+        <v>116.58750817333546</v>
       </c>
       <c r="B100">
-        <v>40.23294087020529</v>
+        <v>40.238382050309369</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>116.60939568242097</v>
+        <v>116.58750418468343</v>
       </c>
       <c r="B101">
-        <v>40.232910245837331</v>
+        <v>40.238351568995292</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>116.60939680905103</v>
+        <v>116.58750019603578</v>
       </c>
       <c r="B102">
-        <v>40.232879621470126</v>
+        <v>40.2383210876825</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>116.60939793568001</v>
+        <v>116.58749620739262</v>
       </c>
       <c r="B103">
-        <v>40.23284899710363</v>
+        <v>40.238290606371017</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>116.60939906230794</v>
+        <v>116.58749221875382</v>
       </c>
       <c r="B104">
-        <v>40.232818372737867</v>
+        <v>40.238260125060798</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>116.6094001889348</v>
+        <v>116.58748823011946</v>
       </c>
       <c r="B105">
-        <v>40.232787748372822</v>
+        <v>40.238229643751886</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>116.6094013155606</v>
+        <v>116.58748424148952</v>
       </c>
       <c r="B106">
-        <v>40.232757124008522</v>
+        <v>40.238199162444246</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>116.60940244218538</v>
+        <v>116.587480252864</v>
       </c>
       <c r="B107">
-        <v>40.232726499644926</v>
+        <v>40.2381686811379</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>116.60940356880911</v>
+        <v>116.58747626424285</v>
       </c>
       <c r="B108">
-        <v>40.232695875282062</v>
+        <v>40.238138199832825</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>116.60940469543181</v>
+        <v>116.58747227562617</v>
       </c>
       <c r="B109">
-        <v>40.232665250919929</v>
+        <v>40.238107718529058</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>116.60940582205339</v>
+        <v>116.58747264591338</v>
       </c>
       <c r="B110">
-        <v>40.232634626558522</v>
+        <v>40.238109760704404</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>116.60940694867391</v>
+        <v>116.58747579302897</v>
       </c>
       <c r="B111">
-        <v>40.232604002197832</v>
+        <v>40.238117064499242</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>116.60940807529344</v>
+        <v>116.5874814960309</v>
       </c>
       <c r="B112">
-        <v>40.232573377837866</v>
+        <v>40.238123390635977</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>116.60940920191187</v>
+        <v>116.58748929289922</v>
       </c>
       <c r="B113">
-        <v>40.232542753478633</v>
+        <v>40.238128226610726</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>116.60941032852928</v>
+        <v>116.58749855198121</v>
       </c>
       <c r="B114">
-        <v>40.232512129120131</v>
+        <v>40.238131180643649</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>116.60941145514558</v>
+        <v>116.58750852316335</v>
       </c>
       <c r="B115">
-        <v>40.232481504762326</v>
+        <v>40.238132013417975</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>116.60941258176089</v>
+        <v>116.58751839864064</v>
       </c>
       <c r="B116">
-        <v>40.232450880405281</v>
+        <v>40.238130657467678</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116.6094137083751</v>
+        <v>116.58752737836004</v>
       </c>
       <c r="B117">
-        <v>40.23242025604894</v>
+        <v>40.238127222643122</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>116.60941483498829</v>
+        <v>116.58753473483665</v>
       </c>
       <c r="B118">
-        <v>40.232389631693316</v>
+        <v>40.23812198721177</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>116.6094159616004</v>
+        <v>116.58753987209074</v>
       </c>
       <c r="B119">
-        <v>40.232359007338431</v>
+        <v>40.238115375314997</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>116.60941708821146</v>
+        <v>116.58754240795902</v>
       </c>
       <c r="B120">
-        <v>40.232328382984278</v>
+        <v>40.238102275037939</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>116.6094182148215</v>
+        <v>116.58754639662375</v>
       </c>
       <c r="B121">
-        <v>40.232297758630828</v>
+        <v>40.238132756351895</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>116.60941934143042</v>
+        <v>116.58755038529289</v>
       </c>
       <c r="B122">
-        <v>40.232267134278132</v>
+        <v>40.238163237667131</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>116.60942046803835</v>
+        <v>116.58755437396647</v>
       </c>
       <c r="B123">
-        <v>40.232236509926118</v>
+        <v>40.238193718983673</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>116.60942159464517</v>
+        <v>116.5875583626444</v>
       </c>
       <c r="B124">
-        <v>40.232205885574857</v>
+        <v>40.238224200301488</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>116.60942272125099</v>
+        <v>116.58756235132681</v>
       </c>
       <c r="B125">
-        <v>40.232175261224313</v>
+        <v>40.238254681620596</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>116.60942384785578</v>
+        <v>116.58756634001362</v>
       </c>
       <c r="B126">
-        <v>40.232144636874501</v>
+        <v>40.238285162940983</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>116.60942497445942</v>
+        <v>116.58757032870481</v>
       </c>
       <c r="B127">
-        <v>40.232114012525408</v>
+        <v>40.238315644262677</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>116.60942610106206</v>
+        <v>116.58757431740047</v>
       </c>
       <c r="B128">
-        <v>40.232083388177045</v>
+        <v>40.23834612558565</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>116.60942722766363</v>
+        <v>116.5875783061005</v>
       </c>
       <c r="B129">
-        <v>40.232052763829394</v>
+        <v>40.238376606909895</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>116.60942835426418</v>
+        <v>116.58758229480503</v>
       </c>
       <c r="B130">
-        <v>40.23202213948246</v>
+        <v>40.238407088235448</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>116.60942948086365</v>
+        <v>116.5875862835139</v>
       </c>
       <c r="B131">
-        <v>40.231991515136272</v>
+        <v>40.238437569562286</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>116.60943060746206</v>
+        <v>116.58759027222723</v>
       </c>
       <c r="B132">
-        <v>40.231960890790788</v>
+        <v>40.238468050890397</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>116.60943173405943</v>
+        <v>116.58759426094495</v>
       </c>
       <c r="B133">
-        <v>40.231930266446042</v>
+        <v>40.238498532219808</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>116.60943286065574</v>
+        <v>116.58759824966715</v>
       </c>
       <c r="B134">
-        <v>40.231899642102015</v>
+        <v>40.238529013550519</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>116.60943398725102</v>
+        <v>116.5876022383937</v>
       </c>
       <c r="B135">
-        <v>40.231869017758719</v>
+        <v>40.238559494882502</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>116.60943511384522</v>
+        <v>116.5876062271247</v>
       </c>
       <c r="B136">
-        <v>40.231838393416119</v>
+        <v>40.238589976215785</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>116.60943624043837</v>
+        <v>116.58761021586007</v>
       </c>
       <c r="B137">
-        <v>40.231807769074265</v>
+        <v>40.238620457550333</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>116.60943736703047</v>
+        <v>116.58761420459994</v>
       </c>
       <c r="B138">
-        <v>40.23177714473313</v>
+        <v>40.238650938886188</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>116.60943849362152</v>
+        <v>116.58761819334417</v>
       </c>
       <c r="B139">
-        <v>40.231746520392718</v>
+        <v>40.238681420223337</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>116.60943962021149</v>
+        <v>116.58762218209283</v>
       </c>
       <c r="B140">
-        <v>40.231715896053039</v>
+        <v>40.238711901561764</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>116.60944074680043</v>
+        <v>116.58762617084591</v>
       </c>
       <c r="B141">
-        <v>40.231685271714063</v>
+        <v>40.238742382901492</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>116.60944187338832</v>
+        <v>116.58763015960342</v>
       </c>
       <c r="B142">
-        <v>40.231654647375834</v>
+        <v>40.238772864242513</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>116.60944299997514</v>
+        <v>116.58763414836537</v>
       </c>
       <c r="B143">
-        <v>40.2316240230383</v>
+        <v>40.23880334558482</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>116.60944412656094</v>
+        <v>116.58763813713169</v>
       </c>
       <c r="B144">
-        <v>40.231593398701492</v>
+        <v>40.238833826928406</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>116.60944525314567</v>
+        <v>116.58764212590246</v>
       </c>
       <c r="B145">
-        <v>40.231562774365422</v>
+        <v>40.238864308273278</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>116.60944637972932</v>
+        <v>116.58764611467761</v>
       </c>
       <c r="B146">
-        <v>40.23153215003007</v>
+        <v>40.238894789619444</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>116.60944750631195</v>
+        <v>116.58765010345722</v>
       </c>
       <c r="B147">
-        <v>40.231501525695442</v>
+        <v>40.238925270966902</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>116.6094486328935</v>
+        <v>116.58765409224125</v>
       </c>
       <c r="B148">
-        <v>40.231470901361533</v>
+        <v>40.238955752315661</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>116.60944975947402</v>
+        <v>116.58765662813776</v>
       </c>
       <c r="B149">
-        <v>40.231440277028341</v>
+        <v>40.238942652040947</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>116.60945088605345</v>
+        <v>116.5876617654805</v>
       </c>
       <c r="B150">
-        <v>40.231409652695888</v>
+        <v>40.238936040163118</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>116.60945201263188</v>
+        <v>116.58766912209451</v>
       </c>
       <c r="B151">
-        <v>40.231379028364145</v>
+        <v>40.238930804764863</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>116.60945313920917</v>
+        <v>116.58767810199407</v>
       </c>
       <c r="B152">
-        <v>40.231348404033128</v>
+        <v>40.23892736998792</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>116.60945426578549</v>
+        <v>116.58768797768479</v>
       </c>
       <c r="B153">
-        <v>40.23131777970282</v>
+        <v>40.238926014098226</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>116.60945539236072</v>
+        <v>116.58769794909981</v>
       </c>
       <c r="B154">
-        <v>40.231287155373252</v>
+        <v>40.238926846942249</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>116.60945651893488</v>
+        <v>116.58770720841603</v>
       </c>
       <c r="B155">
-        <v>40.231256531044387</v>
+        <v>40.238929801047725</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>116.60945764550804</v>
+        <v>116.58771500549872</v>
       </c>
       <c r="B156">
-        <v>40.231225906716254</v>
+        <v>40.238934637089883</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>116.6094587720801</v>
+        <v>116.58772070867326</v>
       </c>
       <c r="B157">
-        <v>40.231195282388846</v>
+        <v>40.238940963280491</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>116.60945989865114</v>
+        <v>116.58772385590036</v>
       </c>
       <c r="B158">
-        <v>40.231164658062148</v>
+        <v>40.238948267108562</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>116.60946102522108</v>
+        <v>116.5877242262051</v>
       </c>
       <c r="B159">
-        <v>40.231134033736197</v>
+        <v>40.238950309288605</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>116.60946215179003</v>
+        <v>116.58772023737306</v>
       </c>
       <c r="B160">
-        <v>40.231103409410942</v>
+        <v>40.238919827929664</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>116.60946327835791</v>
+        <v>116.58771624854546</v>
       </c>
       <c r="B161">
-        <v>40.231072785086411</v>
+        <v>40.238889346572051</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>116.60946440492469</v>
+        <v>116.5877122597222</v>
       </c>
       <c r="B162">
-        <v>40.231042160762627</v>
+        <v>40.23885886521569</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>116.60946553149046</v>
+        <v>116.58770827090342</v>
       </c>
       <c r="B163">
-        <v>40.231011536439524</v>
+        <v>40.238828383860628</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>116.60946665805514</v>
+        <v>116.58770428208904</v>
       </c>
       <c r="B164">
-        <v>40.230980912117175</v>
+        <v>40.238797902506846</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>116.6094677846188</v>
+        <v>116.58770029327908</v>
       </c>
       <c r="B165">
-        <v>40.23095028779553</v>
+        <v>40.238767421154357</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>116.60946891118137</v>
+        <v>116.58769630447352</v>
       </c>
       <c r="B166">
-        <v>40.230919663474623</v>
+        <v>40.238736939803161</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>116.60947003774291</v>
+        <v>116.58769231567244</v>
       </c>
       <c r="B167">
-        <v>40.230889039154405</v>
+        <v>40.238706458453258</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>116.60947116430343</v>
+        <v>116.58768832687576</v>
       </c>
       <c r="B168">
-        <v>40.230858414834927</v>
+        <v>40.238675977104634</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>116.60947229086287</v>
+        <v>116.58768433808349</v>
       </c>
       <c r="B169">
-        <v>40.230827790516187</v>
+        <v>40.238645495757318</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>116.60947341742123</v>
+        <v>116.58768034929562</v>
       </c>
       <c r="B170">
-        <v>40.230797166198151</v>
+        <v>40.238615014411273</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>116.60947454397854</v>
+        <v>116.58767636051216</v>
       </c>
       <c r="B171">
-        <v>40.230766541880833</v>
+        <v>40.238584533066522</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>116.60947567053483</v>
+        <v>116.58767237173316</v>
       </c>
       <c r="B172">
-        <v>40.230735917564232</v>
+        <v>40.238554051723057</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>116.60947679709001</v>
+        <v>116.58766838295858</v>
       </c>
       <c r="B173">
-        <v>40.23070529324837</v>
+        <v>40.238523570380885</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>116.60947792364416</v>
+        <v>116.58766439418838</v>
       </c>
       <c r="B174">
-        <v>40.230674668933212</v>
+        <v>40.238493089039999</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>116.60947905019727</v>
+        <v>116.5876604054226</v>
       </c>
       <c r="B175">
-        <v>40.230644044618764</v>
+        <v>40.238462607700413</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>116.60948017674936</v>
+        <v>116.58765641666128</v>
       </c>
       <c r="B176">
-        <v>40.230613420305048</v>
+        <v>40.238432126362092</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>116.60948130330034</v>
+        <v>116.58765242790435</v>
       </c>
       <c r="B177">
-        <v>40.230582795992071</v>
+        <v>40.238401645025078</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>116.6094824298503</v>
+        <v>116.58764843915185</v>
       </c>
       <c r="B178">
-        <v>40.230552171679804</v>
+        <v>40.238371163689351</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>116.60948355639921</v>
+        <v>116.58764445040373</v>
       </c>
       <c r="B179">
-        <v>40.230521547368248</v>
+        <v>40.238340682354917</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>116.60948468294703</v>
+        <v>116.58764046166009</v>
       </c>
       <c r="B180">
-        <v>40.230490923057403</v>
+        <v>40.238310201021754</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>116.60948580949386</v>
+        <v>116.58763647292085</v>
       </c>
       <c r="B181">
-        <v>40.230460298747303</v>
+        <v>40.238279719689899</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>116.60948751825406</v>
+        <v>116.58763248418603</v>
       </c>
       <c r="B182">
-        <v>40.230452717270026</v>
+        <v>40.238249238359309</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>116.60949194597879</v>
+        <v>116.58762849545555</v>
       </c>
       <c r="B183">
-        <v>40.230445812671746</v>
+        <v>40.238218757030033</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>116.60949873396211</v>
+        <v>116.58762450672958</v>
       </c>
       <c r="B184">
-        <v>40.230440144321804</v>
+        <v>40.238188275702022</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>116.60950733228547</v>
+        <v>116.58762051800802</v>
       </c>
       <c r="B185">
-        <v>40.230436171436658</v>
+        <v>40.238157794375311</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>116.60951704436781</v>
+        <v>116.58761652929086</v>
       </c>
       <c r="B186">
-        <v>40.230434215876386</v>
+        <v>40.238127313049894</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>116.60952708339754</v>
+        <v>116.58761254057812</v>
       </c>
       <c r="B187">
-        <v>40.230434436069189</v>
+        <v>40.238096831725741</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>116.60953663607472</v>
+        <v>116.58761291087264</v>
       </c>
       <c r="B188">
-        <v>40.230436814176358</v>
+        <v>40.23809887390297</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>116.60954492849913</v>
+        <v>116.58761605802948</v>
       </c>
       <c r="B189">
-        <v>40.230441157537371</v>
+        <v>40.238106177713895</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>116.60955128886755</v>
+        <v>116.58762176109191</v>
       </c>
       <c r="B190">
-        <v>40.230447114278363</v>
+        <v>40.238112503879698</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>116.60955520189918</v>
+        <v>116.58762955803506</v>
       </c>
       <c r="B191">
-        <v>40.230454201819285</v>
+        <v>40.238117339894252</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>116.60955635058187</v>
+        <v>116.5876388172002</v>
       </c>
       <c r="B192">
-        <v>40.230461845969913</v>
+        <v>40.238120293974418</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>116.60955522406232</v>
+        <v>116.58764878846706</v>
       </c>
       <c r="B193">
-        <v>40.230492470277532</v>
+        <v>40.238121126799612</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>116.60955409754166</v>
+        <v>116.58765866402372</v>
       </c>
       <c r="B194">
-        <v>40.230523094585884</v>
+        <v>40.238119770899708</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>116.60955297102002</v>
+        <v>116.58766764381075</v>
       </c>
       <c r="B195">
-        <v>40.230553718894932</v>
+        <v>40.238116336120981</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>116.6095518444973</v>
+        <v>116.58767500033778</v>
       </c>
       <c r="B196">
-        <v>40.230584343204704</v>
+        <v>40.23811110072716</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>116.60955071797351</v>
+        <v>116.58768013762102</v>
       </c>
       <c r="B197">
-        <v>40.230614967515201</v>
+        <v>40.2381044888566</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>116.60954959144867</v>
+        <v>116.58768267348344</v>
       </c>
       <c r="B198">
-        <v>40.230645591826423</v>
+        <v>40.238091388592487</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>116.60954846492278</v>
+        <v>116.5876866622442</v>
       </c>
       <c r="B199">
-        <v>40.230676216138356</v>
+        <v>40.238121869926808</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>116.60954733839584</v>
+        <v>116.58769065100934</v>
       </c>
       <c r="B200">
-        <v>40.23070684045102</v>
+        <v>40.238152351262428</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>116.60954621186781</v>
+        <v>116.58769463977895</v>
       </c>
       <c r="B201">
-        <v>40.230737464764402</v>
+        <v>40.238182832599328</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>116.60954508533877</v>
+        <v>116.587698628553</v>
       </c>
       <c r="B202">
-        <v>40.230768089078502</v>
+        <v>40.238213313937507</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>116.60954395880864</v>
+        <v>116.58770261733142</v>
       </c>
       <c r="B203">
-        <v>40.230798713393312</v>
+        <v>40.238243795276965</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>116.60954283227751</v>
+        <v>116.58770660611427</v>
       </c>
       <c r="B204">
-        <v>40.230829337708855</v>
+        <v>40.23827427661773</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>116.60954170574529</v>
+        <v>116.58771059490158</v>
       </c>
       <c r="B205">
-        <v>40.230859962025129</v>
+        <v>40.238304757959796</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>116.60954057921202</v>
+        <v>116.58771458369327</v>
       </c>
       <c r="B206">
-        <v>40.230890586342113</v>
+        <v>40.23833523930314</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>116.60953945267771</v>
+        <v>116.58771857248941</v>
       </c>
       <c r="B207">
-        <v>40.230921210659822</v>
+        <v>40.238365720647749</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>116.60953832614231</v>
+        <v>116.58772256128992</v>
       </c>
       <c r="B208">
-        <v>40.230951834978228</v>
+        <v>40.238396201993673</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>116.6095371996059</v>
+        <v>116.5877265500949</v>
       </c>
       <c r="B209">
-        <v>40.230982459297387</v>
+        <v>40.238426683340883</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>116.60953607306844</v>
+        <v>116.58773053890422</v>
       </c>
       <c r="B210">
-        <v>40.231013083617249</v>
+        <v>40.238457164689365</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>116.60953494652989</v>
+        <v>116.58773452771807</v>
       </c>
       <c r="B211">
-        <v>40.231043707937843</v>
+        <v>40.238487646039147</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>116.60953381999029</v>
+        <v>116.58773851653625</v>
       </c>
       <c r="B212">
-        <v>40.231074332259134</v>
+        <v>40.238518127390208</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>116.60953269344965</v>
+        <v>116.58774250535889</v>
       </c>
       <c r="B213">
-        <v>40.23110495658117</v>
+        <v>40.238548608742562</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>116.60953156690795</v>
+        <v>116.58774649418595</v>
       </c>
       <c r="B214">
-        <v>40.231135580903924</v>
+        <v>40.238579090096223</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>116.60953044036523</v>
+        <v>116.5877504830174</v>
       </c>
       <c r="B215">
-        <v>40.231166205227389</v>
+        <v>40.23860957145115</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>116.6095293138214</v>
+        <v>116.58775447185329</v>
       </c>
       <c r="B216">
-        <v>40.231196829551585</v>
+        <v>40.238640052807384</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>116.60952818727654</v>
+        <v>116.58775846069358</v>
       </c>
       <c r="B217">
-        <v>40.231227453876514</v>
+        <v>40.238670534164889</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>116.60952706073064</v>
+        <v>116.58776244953833</v>
       </c>
       <c r="B218">
-        <v>40.231258078202146</v>
+        <v>40.238701015523695</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>116.60952593418367</v>
+        <v>116.58776643838748</v>
       </c>
       <c r="B219">
-        <v>40.231288702528509</v>
+        <v>40.238731496883794</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>116.60952480763565</v>
+        <v>116.58777042724104</v>
       </c>
       <c r="B220">
-        <v>40.231319326855584</v>
+        <v>40.238761978245165</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>116.60952368108654</v>
+        <v>116.58777441609901</v>
       </c>
       <c r="B221">
-        <v>40.231349951183397</v>
+        <v>40.238792459607836</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>116.60952255453644</v>
+        <v>116.5877784049614</v>
       </c>
       <c r="B222">
-        <v>40.231380575511906</v>
+        <v>40.238822940971808</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>116.60952142798523</v>
+        <v>116.58778239382823</v>
       </c>
       <c r="B223">
-        <v>40.231411199841162</v>
+        <v>40.238853422337037</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>116.60952030143302</v>
+        <v>116.58778638269949</v>
       </c>
       <c r="B224">
-        <v>40.231441824171121</v>
+        <v>40.238883903703595</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>116.60951917487971</v>
+        <v>116.58779037157515</v>
       </c>
       <c r="B225">
-        <v>40.231472448501826</v>
+        <v>40.238914385071425</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>116.6095180483254</v>
+        <v>116.58779436045519</v>
       </c>
       <c r="B226">
-        <v>40.231503072833235</v>
+        <v>40.238944866440548</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>116.60951692176999</v>
+        <v>116.58779834933971</v>
       </c>
       <c r="B227">
-        <v>40.231533697165361</v>
+        <v>40.238975347810957</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>116.60951579521354</v>
+        <v>116.58780088523136</v>
       </c>
       <c r="B228">
-        <v>40.231564321498226</v>
+        <v>40.238962247549267</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>116.60951466865603</v>
+        <v>116.58780602260642</v>
       </c>
       <c r="B229">
-        <v>40.231594945831795</v>
+        <v>40.23895563569824</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>116.6095135420975</v>
+        <v>116.58781337927564</v>
       </c>
       <c r="B230">
-        <v>40.231625570166102</v>
+        <v>40.238950400338503</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>116.60951241553785</v>
+        <v>116.58782235924888</v>
       </c>
       <c r="B231">
-        <v>40.231656194501134</v>
+        <v>40.238946965608619</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>116.6095112889772</v>
+        <v>116.58783223502569</v>
       </c>
       <c r="B232">
-        <v>40.231686818836884</v>
+        <v>40.238945609770738</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>116.60951016241548</v>
+        <v>116.5878422065324</v>
       </c>
       <c r="B233">
-        <v>40.231717443173352</v>
+        <v>40.238946442667164</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>116.6095090358527</v>
+        <v>116.58785146593833</v>
       </c>
       <c r="B234">
-        <v>40.231748067510544</v>
+        <v>40.238949396821312</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>116.60950790928889</v>
+        <v>116.58785926310151</v>
       </c>
       <c r="B235">
-        <v>40.231778691848461</v>
+        <v>40.238954232904526</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>116.609506782724</v>
+        <v>116.58786496634083</v>
       </c>
       <c r="B236">
-        <v>40.231809316187103</v>
+        <v>40.238960559125232</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>116.60950565615805</v>
+        <v>116.58786811361179</v>
       </c>
       <c r="B237">
-        <v>40.231839940526463</v>
+        <v>40.23896786297</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>116.60950452959108</v>
+        <v>116.5878684839242</v>
       </c>
       <c r="B238">
-        <v>40.231870564866554</v>
+        <v>40.238969905152054</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>116.60950340302306</v>
+        <v>116.58786449499161</v>
       </c>
       <c r="B239">
-        <v>40.231901189207377</v>
+        <v>40.238939423771455</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>116.60950227645394</v>
+        <v>116.58786050606352</v>
       </c>
       <c r="B240">
-        <v>40.231931813548897</v>
+        <v>40.23890894239215</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>116.60950114988377</v>
+        <v>116.58785651713983</v>
       </c>
       <c r="B241">
-        <v>40.231962437891156</v>
+        <v>40.238878461014117</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>116.60950002331259</v>
+        <v>116.58785252822055</v>
       </c>
       <c r="B242">
-        <v>40.231993062234125</v>
+        <v>40.238847979637399</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>116.60949889674031</v>
+        <v>116.5878485393057</v>
       </c>
       <c r="B243">
-        <v>40.23202368657784</v>
+        <v>40.238817498261973</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>116.60949777016702</v>
+        <v>116.58784455039526</v>
       </c>
       <c r="B244">
-        <v>40.232054310922258</v>
+        <v>40.238787016887812</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>116.60949664359266</v>
+        <v>116.58784056148924</v>
       </c>
       <c r="B245">
-        <v>40.232084935267423</v>
+        <v>40.23875653551498</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>116.60949551701727</v>
+        <v>116.58783657258766</v>
       </c>
       <c r="B246">
-        <v>40.232115559613284</v>
+        <v>40.238726054143392</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>116.60949439044076</v>
+        <v>116.58783258369046</v>
       </c>
       <c r="B247">
-        <v>40.232146183959898</v>
+        <v>40.238695572773111</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>116.60949326386321</v>
+        <v>116.58782859479771</v>
       </c>
       <c r="B248">
-        <v>40.232176808307209</v>
+        <v>40.238665091404108</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>116.60949213728468</v>
+        <v>116.58782460590939</v>
       </c>
       <c r="B249">
-        <v>40.232207432655258</v>
+        <v>40.238634610036414</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>116.60949101070506</v>
+        <v>116.58782061702544</v>
       </c>
       <c r="B250">
-        <v>40.232238057004032</v>
+        <v>40.238604128670019</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>116.60948988412434</v>
+        <v>116.58781662814599</v>
       </c>
       <c r="B251">
-        <v>40.232268681353517</v>
+        <v>40.238573647304889</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>116.60948875754259</v>
+        <v>116.58781263927091</v>
       </c>
       <c r="B252">
-        <v>40.232299305703755</v>
+        <v>40.238543165941053</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>116.60948763095982</v>
+        <v>116.58780865040021</v>
       </c>
       <c r="B253">
-        <v>40.232329930054675</v>
+        <v>40.238512684578502</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>116.60948650437594</v>
+        <v>116.58780466153397</v>
       </c>
       <c r="B254">
-        <v>40.232360554406362</v>
+        <v>40.238482203217238</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>116.60948537779106</v>
+        <v>116.58780067267215</v>
       </c>
       <c r="B255">
-        <v>40.232391178758739</v>
+        <v>40.238451721857281</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>116.60948425120509</v>
+        <v>116.58779668381474</v>
       </c>
       <c r="B256">
-        <v>40.232421803111862</v>
+        <v>40.238421240498617</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>116.60948312461805</v>
+        <v>116.58779269496178</v>
       </c>
       <c r="B257">
-        <v>40.232452427465709</v>
+        <v>40.238390759141218</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>116.60948199803001</v>
+        <v>116.5877887061132</v>
       </c>
       <c r="B258">
-        <v>40.232483051820275</v>
+        <v>40.238360277785112</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>116.60948087144089</v>
+        <v>116.58778471726906</v>
       </c>
       <c r="B259">
-        <v>40.232513676175564</v>
+        <v>40.2383297964303</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>116.6094797448507</v>
+        <v>116.58778072842929</v>
       </c>
       <c r="B260">
-        <v>40.232544300531565</v>
+        <v>40.238299315076766</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>116.6094786182595</v>
+        <v>116.58777673959401</v>
       </c>
       <c r="B261">
-        <v>40.232574924888333</v>
+        <v>40.238268833724526</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>116.60947749166723</v>
+        <v>116.58777275076312</v>
       </c>
       <c r="B262">
-        <v>40.23260554924579</v>
+        <v>40.238238352373578</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>116.60947636507389</v>
+        <v>116.58776876193664</v>
       </c>
       <c r="B263">
-        <v>40.232636173603986</v>
+        <v>40.238207871023953</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>116.6094752384795</v>
+        <v>116.58776477311459</v>
       </c>
       <c r="B264">
-        <v>40.232666797962899</v>
+        <v>40.23817738967557</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>116.60947411188405</v>
+        <v>116.58776078429693</v>
       </c>
       <c r="B265">
-        <v>40.232697422322531</v>
+        <v>40.238146908328474</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>116.6094729852876</v>
+        <v>116.58775679548376</v>
       </c>
       <c r="B266">
-        <v>40.232728046682887</v>
+        <v>40.238116426982685</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>116.60947185869003</v>
+        <v>116.58775280667493</v>
       </c>
       <c r="B267">
-        <v>40.232758671043982</v>
+        <v>40.238085945638161</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>116.60947073209142</v>
+        <v>116.58775317697672</v>
       </c>
       <c r="B268">
-        <v>40.232789295405809</v>
+        <v>40.238087987817273</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>116.60946960549177</v>
+        <v>116.58775632417485</v>
       </c>
       <c r="B269">
-        <v>40.232819919768353</v>
+        <v>40.238095291644257</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>116.60946847889106</v>
+        <v>116.58776202729777</v>
       </c>
       <c r="B270">
-        <v>40.232850544131608</v>
+        <v>40.238101617839192</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>116.6094673522893</v>
+        <v>116.58776982431583</v>
       </c>
       <c r="B271">
-        <v>40.232881168495616</v>
+        <v>40.238106453893536</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>116.60946622568645</v>
+        <v>116.5877790835641</v>
       </c>
       <c r="B272">
-        <v>40.232911792860321</v>
+        <v>40.238109408020968</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>116.6094650990826</v>
+        <v>116.58778905491569</v>
       </c>
       <c r="B273">
-        <v>40.232942417225779</v>
+        <v>40.238110240897051</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>116.60946397247767</v>
+        <v>116.58779893055176</v>
       </c>
       <c r="B274">
-        <v>40.23297304159194</v>
+        <v>40.238108885047538</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>116.60946284587166</v>
+        <v>116.58780791040645</v>
       </c>
       <c r="B275">
-        <v>40.23300366595884</v>
+        <v>40.238105450314634</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>116.60946171926464</v>
+        <v>116.58781526698394</v>
       </c>
       <c r="B276">
-        <v>40.233034290326479</v>
+        <v>40.238100214958351</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>116.60946286797196</v>
+        <v>116.58782040429631</v>
       </c>
       <c r="B277">
-        <v>40.233041934488</v>
+        <v>40.23809360311401</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>116.60946678112185</v>
+        <v>116.58782294015276</v>
       </c>
       <c r="B278">
-        <v>40.233049022031338</v>
+        <v>40.238080502862815</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>116.60947314169722</v>
+        <v>116.58782692900957</v>
       </c>
       <c r="B279">
-        <v>40.233054978768074</v>
+        <v>40.238110984217521</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>116.60948143440564</v>
+        <v>116.58783091787083</v>
       </c>
       <c r="B280">
-        <v>40.233059322121115</v>
+        <v>40.238141465573506</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>116.60949098742448</v>
+        <v>116.5878349067365</v>
       </c>
       <c r="B281">
-        <v>40.233061700219899</v>
+        <v>40.23817194693077</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>116.6095010268271</v>
+        <v>116.58783889560661</v>
       </c>
       <c r="B282">
-        <v>40.233061920406179</v>
+        <v>40.238202428289341</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>116.60951073928186</v>
+        <v>116.58784288448106</v>
       </c>
       <c r="B283">
-        <v>40.233059964841914</v>
+        <v>40.238232909649177</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>116.60951933794291</v>
+        <v>116.58784687336001</v>
       </c>
       <c r="B284">
-        <v>40.233055991954238</v>
+        <v>40.238263391010321</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>116.60952612619694</v>
+        <v>116.58785086224336</v>
       </c>
       <c r="B285">
-        <v>40.23305032360102</v>
+        <v>40.238293872372751</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>116.60953055409884</v>
+        <v>116.58785485113114</v>
       </c>
       <c r="B286">
-        <v>40.233043418996196</v>
+        <v>40.238324353736438</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>116.60953226292565</v>
+        <v>116.58785884002329</v>
       </c>
       <c r="B287">
-        <v>40.233035837507536</v>
+        <v>40.238354835101454</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>116.60953338950546</v>
+        <v>116.58786282891991</v>
       </c>
       <c r="B288">
-        <v>40.233005213142391</v>
+        <v>40.238385316467749</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>116.60953451608422</v>
+        <v>116.5878668178209</v>
       </c>
       <c r="B289">
-        <v>40.232974588777999</v>
+        <v>40.23841579783533</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>116.60953564266194</v>
+        <v>116.58787080672636</v>
       </c>
       <c r="B290">
-        <v>40.232943964414318</v>
+        <v>40.238446279204183</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>116.60953676923857</v>
+        <v>116.5878747956362</v>
       </c>
       <c r="B291">
-        <v>40.232913340051383</v>
+        <v>40.238476760574343</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>116.60953789581414</v>
+        <v>116.58787878455047</v>
       </c>
       <c r="B292">
-        <v>40.232882715689144</v>
+        <v>40.238507241945783</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>116.60953902238872</v>
+        <v>116.58788277346916</v>
       </c>
       <c r="B293">
-        <v>40.232852091327658</v>
+        <v>40.238537723318522</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>116.60954014896222</v>
+        <v>116.58788676239229</v>
       </c>
       <c r="B294">
-        <v>40.232821466966875</v>
+        <v>40.238568204692527</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>116.60954127553465</v>
+        <v>116.58789075131983</v>
       </c>
       <c r="B295">
-        <v>40.232790842606832</v>
+        <v>40.238598686067846</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>116.60954240210603</v>
+        <v>116.58789474025177</v>
       </c>
       <c r="B296">
-        <v>40.232760218247499</v>
+        <v>40.238629167444437</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>116.60954352867633</v>
+        <v>116.58789872918813</v>
       </c>
       <c r="B297">
-        <v>40.232729593888912</v>
+        <v>40.238659648822335</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>116.60954465524563</v>
+        <v>116.58790271812896</v>
       </c>
       <c r="B298">
-        <v>40.232698969531036</v>
+        <v>40.238690130201491</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>116.60954578181384</v>
+        <v>116.58790670707415</v>
       </c>
       <c r="B299">
-        <v>40.232668345173884</v>
+        <v>40.238720611581982</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>116.60954690838099</v>
+        <v>116.5879106960238</v>
       </c>
       <c r="B300">
-        <v>40.232637720817472</v>
+        <v>40.238751092963739</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>116.6095480349471</v>
+        <v>116.58791468497782</v>
       </c>
       <c r="B301">
-        <v>40.23260709646177</v>
+        <v>40.238781574346788</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>116.60954916151218</v>
+        <v>116.58791867393631</v>
       </c>
       <c r="B302">
-        <v>40.232576472106814</v>
+        <v>40.238812055731124</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>116.60955028807616</v>
+        <v>116.58792266289919</v>
       </c>
       <c r="B303">
-        <v>40.232545847752547</v>
+        <v>40.238842537116739</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>116.60955141463914</v>
+        <v>116.5879266518665</v>
       </c>
       <c r="B304">
-        <v>40.232515223399048</v>
+        <v>40.238873018503647</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>116.60955254120105</v>
+        <v>116.58793064083818</v>
       </c>
       <c r="B305">
-        <v>40.232484599046238</v>
+        <v>40.238903499891862</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>116.60955366776192</v>
+        <v>116.58793462981437</v>
       </c>
       <c r="B306">
-        <v>40.232453974694174</v>
+        <v>40.238933981281349</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>116.60955479432168</v>
+        <v>116.58793861879495</v>
       </c>
       <c r="B307">
-        <v>40.232423350342813</v>
+        <v>40.238964462672143</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>116.60955592088041</v>
+        <v>116.58794115468066</v>
       </c>
       <c r="B308">
-        <v>40.232392725992206</v>
+        <v>40.238951362423379</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>116.6095570474381</v>
+        <v>116.58794629208487</v>
       </c>
       <c r="B309">
-        <v>40.232362101642288</v>
+        <v>40.238944750598598</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>116.60955817399473</v>
+        <v>116.58795364880456</v>
       </c>
       <c r="B310">
-        <v>40.232331477293123</v>
+        <v>40.238939515276407</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>116.6095593005503</v>
+        <v>116.58796262884543</v>
       </c>
       <c r="B311">
-        <v>40.232300852944675</v>
+        <v>40.238936080592367</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>116.60956042710482</v>
+        <v>116.58797250470168</v>
       </c>
       <c r="B312">
-        <v>40.232270228596953</v>
+        <v>40.238934724804892</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>116.6095615536583</v>
+        <v>116.58798247629311</v>
       </c>
       <c r="B313">
-        <v>40.232239604249955</v>
+        <v>40.2389355577522</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>116.6095626802107</v>
+        <v>116.58799173578223</v>
       </c>
       <c r="B314">
-        <v>40.232208979903682</v>
+        <v>40.238938511953641</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>116.60956380676207</v>
+        <v>116.58799953302031</v>
       </c>
       <c r="B315">
-        <v>40.232178355558126</v>
+        <v>40.238943348076667</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>116.60956493331236</v>
+        <v>116.58800523632016</v>
       </c>
       <c r="B316">
-        <v>40.232147731213303</v>
+        <v>40.23894967432647</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>116.60956605986162</v>
+        <v>116.58800838363234</v>
       </c>
       <c r="B317">
-        <v>40.232117106869183</v>
+        <v>40.238956978187325</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>116.60956718640979</v>
+        <v>116.58800875395202</v>
       </c>
       <c r="B318">
-        <v>40.232086482525808</v>
+        <v>40.238959020371247</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>116.60956831295695</v>
+        <v>116.58800476492347</v>
       </c>
       <c r="B319">
-        <v>40.232055858183152</v>
+        <v>40.238928538970264</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>116.60956943950305</v>
+        <v>116.58800077589926</v>
       </c>
       <c r="B320">
-        <v>40.232025233841213</v>
+        <v>40.23889805757058</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>116.60957056604812</v>
+        <v>116.5879967868795</v>
       </c>
       <c r="B321">
-        <v>40.231994609500013</v>
+        <v>40.23886757617219</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>116.60957169259208</v>
+        <v>116.58799279786416</v>
       </c>
       <c r="B322">
-        <v>40.231963985159531</v>
+        <v>40.238837094775093</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>116.60957281913501</v>
+        <v>116.58798880885324</v>
       </c>
       <c r="B323">
-        <v>40.231933360819752</v>
+        <v>40.238806613379275</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>116.6095739456769</v>
+        <v>116.5879848198467</v>
       </c>
       <c r="B324">
-        <v>40.231902736480734</v>
+        <v>40.238776131984764</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>116.60957507221772</v>
+        <v>116.58798083084466</v>
       </c>
       <c r="B325">
-        <v>40.231872112142405</v>
+        <v>40.238745650591518</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>116.60957619875749</v>
+        <v>116.58797684184695</v>
       </c>
       <c r="B326">
-        <v>40.231841487804829</v>
+        <v>40.238715169199587</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>116.60957732529617</v>
+        <v>116.58797285285372</v>
       </c>
       <c r="B327">
-        <v>40.231810863467928</v>
+        <v>40.23868468780892</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>116.60957845183383</v>
+        <v>116.58796886386489</v>
       </c>
       <c r="B328">
-        <v>40.231780239131801</v>
+        <v>40.238654206419547</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>116.60957957837043</v>
+        <v>116.5879648748805</v>
       </c>
       <c r="B329">
-        <v>40.231749614796378</v>
+        <v>40.238623725031474</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>116.60958070490598</v>
+        <v>116.5879608859005</v>
       </c>
       <c r="B330">
-        <v>40.23171899046168</v>
+        <v>40.238593243644694</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>116.60958183144048</v>
+        <v>116.58795689692494</v>
       </c>
       <c r="B331">
-        <v>40.231688366127699</v>
+        <v>40.238562762259185</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>116.60958295797393</v>
+        <v>116.58795290795379</v>
       </c>
       <c r="B332">
-        <v>40.23165774179445</v>
+        <v>40.238532280874985</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>116.60958408450634</v>
+        <v>116.58794891898705</v>
       </c>
       <c r="B333">
-        <v>40.231627117461912</v>
+        <v>40.238501799492056</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>116.60958521103767</v>
+        <v>116.58794493002473</v>
       </c>
       <c r="B334">
-        <v>40.231596493130091</v>
+        <v>40.238471318110427</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>116.60958633756795</v>
+        <v>116.58794094106685</v>
       </c>
       <c r="B335">
-        <v>40.231565868799017</v>
+        <v>40.238440836730085</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>116.6095874640972</v>
+        <v>116.58793695211338</v>
       </c>
       <c r="B336">
-        <v>40.231535244468645</v>
+        <v>40.238410355351036</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>116.60958859062536</v>
+        <v>116.58793296316431</v>
       </c>
       <c r="B337">
-        <v>40.231504620139013</v>
+        <v>40.238379873973265</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>116.60958971715249</v>
+        <v>116.58792897421966</v>
       </c>
       <c r="B338">
-        <v>40.23147399581007</v>
+        <v>40.238349392596795</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>116.60959084367857</v>
+        <v>116.58792498527949</v>
       </c>
       <c r="B339">
-        <v>40.23144337148188</v>
+        <v>40.238318911221597</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>116.60959197020358</v>
+        <v>116.5879209963437</v>
       </c>
       <c r="B340">
-        <v>40.231412747154423</v>
+        <v>40.238288429847699</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>116.60959309672754</v>
+        <v>116.58791700741232</v>
       </c>
       <c r="B341">
-        <v>40.231382122827647</v>
+        <v>40.238257948475081</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>116.60959422325043</v>
+        <v>116.58791301848535</v>
       </c>
       <c r="B342">
-        <v>40.231351498501631</v>
+        <v>40.238227467103755</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>116.60959534977231</v>
+        <v>116.58790902956284</v>
       </c>
       <c r="B343">
-        <v>40.231320874176312</v>
+        <v>40.238196985733722</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>116.60959647629311</v>
+        <v>116.58790504064471</v>
       </c>
       <c r="B344">
-        <v>40.231290249851725</v>
+        <v>40.238166504364983</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>116.60959760281283</v>
+        <v>116.58790105173101</v>
       </c>
       <c r="B345">
-        <v>40.231259625527869</v>
+        <v>40.23813602299753</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>116.60959872933154</v>
+        <v>116.58789706282171</v>
       </c>
       <c r="B346">
-        <v>40.23122900120471</v>
+        <v>40.238105541631356</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>116.60959985584917</v>
+        <v>116.58789307391687</v>
       </c>
       <c r="B347">
-        <v>40.23119837688229</v>
+        <v>40.238075060266475</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>116.60960098236575</v>
+        <v>116.58789344422594</v>
       </c>
       <c r="B348">
-        <v>40.231167752560587</v>
+        <v>40.238077102447477</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>116.6096021088813</v>
+        <v>116.58789659146532</v>
       </c>
       <c r="B349">
-        <v>40.231137128239617</v>
+        <v>40.238084406290533</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>116.60960323539577</v>
+        <v>116.5879022946488</v>
       </c>
       <c r="B350">
-        <v>40.231106503919356</v>
+        <v>40.238090732514564</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>116.60960436190919</v>
+        <v>116.58791009174168</v>
       </c>
       <c r="B351">
-        <v>40.231075879599814</v>
+        <v>40.238095568608706</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>116.60960548842154</v>
+        <v>116.58791935107317</v>
       </c>
       <c r="B352">
-        <v>40.23104525528101</v>
+        <v>40.238098522783396</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>116.60960661493287</v>
+        <v>116.58792932250945</v>
       </c>
       <c r="B353">
-        <v>40.23101463096291</v>
+        <v>40.238099355710389</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>116.60960774144314</v>
+        <v>116.58793919822492</v>
       </c>
       <c r="B354">
-        <v>40.230984006645535</v>
+        <v>40.23809799991129</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>116.60960886795233</v>
+        <v>116.5879481781473</v>
       </c>
       <c r="B355">
-        <v>40.23095338232887</v>
+        <v>40.23809456522423</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>116.60960999446046</v>
+        <v>116.58795553477523</v>
       </c>
       <c r="B356">
-        <v>40.230922758012959</v>
+        <v>40.23808932990547</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>116.60961112096761</v>
+        <v>116.58796067211672</v>
       </c>
       <c r="B357">
-        <v>40.230892133697743</v>
+        <v>40.238082718087355</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>116.60961224747366</v>
+        <v>116.58796320796731</v>
       </c>
       <c r="B358">
-        <v>40.230861509383239</v>
+        <v>40.238069617849106</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>116.60961337397865</v>
+        <v>116.58796719692016</v>
       </c>
       <c r="B359">
-        <v>40.230830885069494</v>
+        <v>40.238100099224184</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>116.60961450048258</v>
+        <v>116.58797118587752</v>
       </c>
       <c r="B360">
-        <v>40.230800260756432</v>
+        <v>40.238130580600547</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>116.60961562698546</v>
+        <v>116.58797517483922</v>
       </c>
       <c r="B361">
-        <v>40.230769636444116</v>
+        <v>40.23816106197819</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>116.6096167534873</v>
+        <v>116.58797916380537</v>
       </c>
       <c r="B362">
-        <v>40.230739012132496</v>
+        <v>40.238191543357118</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>116.60961787998809</v>
+        <v>116.58798315277593</v>
       </c>
       <c r="B363">
-        <v>40.230708387821615</v>
+        <v>40.238222024737347</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>116.6096190064878</v>
+        <v>116.58798714175094</v>
       </c>
       <c r="B364">
-        <v>40.230677763511444</v>
+        <v>40.238252506118855</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>116.60962013298649</v>
+        <v>116.58799113073033</v>
       </c>
       <c r="B365">
-        <v>40.230647139201999</v>
+        <v>40.238282987501663</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>116.60962125948409</v>
+        <v>116.58799511971417</v>
       </c>
       <c r="B366">
-        <v>40.230616514893278</v>
+        <v>40.238313468885757</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>116.60962238598064</v>
+        <v>116.58799910870245</v>
       </c>
       <c r="B367">
-        <v>40.230585890585267</v>
+        <v>40.238343950271137</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>116.60962351247616</v>
+        <v>116.58800309769509</v>
       </c>
       <c r="B368">
-        <v>40.230555266277989</v>
+        <v>40.238374431657803</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>116.60962463897062</v>
+        <v>116.58800708669217</v>
       </c>
       <c r="B369">
-        <v>40.230524641971421</v>
+        <v>40.238404913045756</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>116.60962576546402</v>
+        <v>116.58801107569369</v>
       </c>
       <c r="B370">
-        <v>40.230494017665571</v>
+        <v>40.23843539443498</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>116.60962689195638</v>
+        <v>116.58801506469962</v>
       </c>
       <c r="B371">
-        <v>40.230463393360459</v>
+        <v>40.238465875825518</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>116.60963394310171</v>
+        <v>116.58801905370993</v>
       </c>
       <c r="B372">
-        <v>40.230426955382605</v>
+        <v>40.238496357217343</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>116.60964315862431</v>
+        <v>116.58802304272471</v>
       </c>
       <c r="B373">
-        <v>40.230421632710389</v>
+        <v>40.238526838610454</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>116.60965395938159</v>
+        <v>116.58802703174392</v>
       </c>
       <c r="B374">
-        <v>40.230418515426386</v>
+        <v>40.238557320004851</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>116.60966547036327</v>
+        <v>116.5880310207675</v>
       </c>
       <c r="B375">
-        <v>40.23041785607559</v>
+        <v>40.238587801400556</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>116.60967675901986</v>
+        <v>116.58803500979552</v>
       </c>
       <c r="B376">
-        <v>40.230419708074955</v>
+        <v>40.238618282797511</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>116.60968691081132</v>
+        <v>116.588038998828</v>
       </c>
       <c r="B377">
-        <v>40.230423921385771</v>
+        <v>40.238648764195794</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>116.60969510329799</v>
+        <v>116.58804298786485</v>
       </c>
       <c r="B378">
-        <v>40.230430154669151</v>
+        <v>40.238679245595343</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>116.60970067277022</v>
+        <v>116.58804697690611</v>
       </c>
       <c r="B379">
-        <v>40.230437902939684</v>
+        <v>40.238709726996198</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>116.60970316801912</v>
+        <v>116.58805096595181</v>
       </c>
       <c r="B380">
-        <v>40.230446538477068</v>
+        <v>40.238740208398333</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>116.60970238689212</v>
+        <v>116.58805495500195</v>
       </c>
       <c r="B381">
-        <v>40.230455361680619</v>
+        <v>40.238770689801747</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>116.60969856008126</v>
+        <v>116.5880589440565</v>
       </c>
       <c r="B382">
-        <v>40.230434316616886</v>
+        <v>40.238801171206468</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>116.60969743361719</v>
+        <v>116.58806293311545</v>
       </c>
       <c r="B383">
-        <v>40.230464940918814</v>
+        <v>40.238831652612468</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>116.60969630715202</v>
+        <v>116.58806692217883</v>
       </c>
       <c r="B384">
-        <v>40.230495565221432</v>
+        <v>40.238862134019769</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>116.60969518068586</v>
+        <v>116.58807091124665</v>
       </c>
       <c r="B385">
-        <v>40.230526189524788</v>
+        <v>40.238892615428355</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>116.60969405421864</v>
+        <v>116.58807490031884</v>
       </c>
       <c r="B386">
-        <v>40.230556813828876</v>
+        <v>40.238923096838221</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>116.60969292775033</v>
+        <v>116.58807888939552</v>
       </c>
       <c r="B387">
-        <v>40.230587438133668</v>
+        <v>40.238953578249394</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>116.60969180128097</v>
+        <v>116.58808142527531</v>
       </c>
       <c r="B388">
-        <v>40.230618062439184</v>
+        <v>40.238940478013561</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>116.60969067481058</v>
+        <v>116.58808656270867</v>
       </c>
       <c r="B389">
-        <v>40.230648686745411</v>
+        <v>40.238933866214978</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>116.60968954833912</v>
+        <v>116.58809391947879</v>
       </c>
       <c r="B390">
-        <v>40.23067931105237</v>
+        <v>40.23892863093036</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>116.60968842186662</v>
+        <v>116.58810289958734</v>
       </c>
       <c r="B391">
-        <v>40.230709935360046</v>
+        <v>40.238925196292165</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>116.60968729539309</v>
+        <v>116.58811277552306</v>
       </c>
       <c r="B392">
-        <v>40.230740559668433</v>
+        <v>40.238923840555117</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>116.60968616891847</v>
+        <v>116.58812274719926</v>
       </c>
       <c r="B393">
-        <v>40.230771183977559</v>
+        <v>40.238924673553342</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>116.60968504244279</v>
+        <v>116.58813200677153</v>
       </c>
       <c r="B394">
-        <v>40.230801808287389</v>
+        <v>40.238927627802035</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>116.60968391596612</v>
+        <v>116.58813980408449</v>
       </c>
       <c r="B395">
-        <v>40.230832432597964</v>
+        <v>40.238932463964886</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>116.60968278948832</v>
+        <v>116.58814550744488</v>
       </c>
       <c r="B396">
-        <v>40.230863056909229</v>
+        <v>40.238938790243829</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>116.60968166300952</v>
+        <v>116.58814865479835</v>
       </c>
       <c r="B397">
-        <v>40.230893681221232</v>
+        <v>40.238946094120742</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>116.60968053652964</v>
+        <v>116.58814902512535</v>
       </c>
       <c r="B398">
-        <v>40.230924305533954</v>
+        <v>40.23894813630659</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>116.60967941004871</v>
+        <v>116.58814503600065</v>
       </c>
       <c r="B399">
-        <v>40.230954929847385</v>
+        <v>40.238917654885213</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>116.60967828356672</v>
+        <v>116.58814104688041</v>
       </c>
       <c r="B400">
-        <v>40.230985554161556</v>
+        <v>40.238887173465145</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>116.60967715708367</v>
+        <v>116.58813705776453</v>
       </c>
       <c r="B401">
-        <v>40.231016178476416</v>
+        <v>40.238856692046362</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>116.60967603059959</v>
+        <v>116.58813306865315</v>
       </c>
       <c r="B402">
-        <v>40.231046802792036</v>
+        <v>40.238826210628886</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>116.60967490411444</v>
+        <v>116.58812907954615</v>
       </c>
       <c r="B403">
-        <v>40.231077427108353</v>
+        <v>40.238795729212697</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>116.60967377762823</v>
+        <v>116.58812509044355</v>
       </c>
       <c r="B404">
-        <v>40.231108051425409</v>
+        <v>40.238765247797794</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>116.60967265114097</v>
+        <v>116.58812110134537</v>
       </c>
       <c r="B405">
-        <v>40.231138675743168</v>
+        <v>40.238734766384169</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>116.60967152465267</v>
+        <v>116.58811711225164</v>
       </c>
       <c r="B406">
-        <v>40.231169300061644</v>
+        <v>40.238704284971845</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>116.60967039816327</v>
+        <v>116.58811312316233</v>
       </c>
       <c r="B407">
-        <v>40.231199924380867</v>
+        <v>40.238673803560815</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>116.60966927167289</v>
+        <v>116.58810913407746</v>
       </c>
       <c r="B408">
-        <v>40.231230548700793</v>
+        <v>40.238643322151063</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>116.60966814518142</v>
+        <v>116.58810514499697</v>
       </c>
       <c r="B409">
-        <v>40.231261173021437</v>
+        <v>40.238612840742597</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>116.60966701868888</v>
+        <v>116.5881011559209</v>
       </c>
       <c r="B410">
-        <v>40.231291797342827</v>
+        <v>40.238582359335432</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>116.60966589219531</v>
+        <v>116.58809716684927</v>
       </c>
       <c r="B411">
-        <v>40.231322421664927</v>
+        <v>40.238551877929559</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>116.60966476570069</v>
+        <v>116.58809317778201</v>
       </c>
       <c r="B412">
-        <v>40.231353045987738</v>
+        <v>40.238521396524973</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>116.609663639205</v>
+        <v>116.58808918871922</v>
       </c>
       <c r="B413">
-        <v>40.231383670311274</v>
+        <v>40.238490915121659</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>116.60966251270825</v>
+        <v>116.5880851996608</v>
       </c>
       <c r="B414">
-        <v>40.231414294635535</v>
+        <v>40.238460433719645</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>116.60966138621048</v>
+        <v>116.58808121060687</v>
       </c>
       <c r="B415">
-        <v>40.231444918960513</v>
+        <v>40.238429952318931</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>116.60966025971162</v>
+        <v>116.58807722155731</v>
       </c>
       <c r="B416">
-        <v>40.231475543286223</v>
+        <v>40.238399470919511</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>116.60965913321171</v>
+        <v>116.58807323251219</v>
       </c>
       <c r="B417">
-        <v>40.231506167612665</v>
+        <v>40.238368989521355</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>116.60965800671077</v>
+        <v>116.58806924347151</v>
       </c>
       <c r="B418">
-        <v>40.23153679193981</v>
+        <v>40.2383385081245</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>116.60965688020875</v>
+        <v>116.58806525443522</v>
       </c>
       <c r="B419">
-        <v>40.23156741626768</v>
+        <v>40.238308026728916</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>116.6096557537057</v>
+        <v>116.58806126540335</v>
       </c>
       <c r="B420">
-        <v>40.231598040596275</v>
+        <v>40.238277545334647</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>116.60965462720161</v>
+        <v>116.58805727637592</v>
       </c>
       <c r="B421">
-        <v>40.23162866492558</v>
+        <v>40.238247063941643</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>116.60965350069641</v>
+        <v>116.58805328735292</v>
       </c>
       <c r="B422">
-        <v>40.231659289255646</v>
+        <v>40.238216582549938</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>116.60965237419016</v>
+        <v>116.58804929833425</v>
       </c>
       <c r="B423">
-        <v>40.231689913586393</v>
+        <v>40.238186101159542</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>116.6096512476829</v>
+        <v>116.58804530932007</v>
       </c>
       <c r="B424">
-        <v>40.231720537917887</v>
+        <v>40.238155619770417</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>116.60965012117457</v>
+        <v>116.58804132031032</v>
       </c>
       <c r="B425">
-        <v>40.231751162250077</v>
+        <v>40.238125138382586</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>116.60964899466521</v>
+        <v>116.58803733130499</v>
       </c>
       <c r="B426">
-        <v>40.231781786583035</v>
+        <v>40.238094656996033</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>116.60964786815475</v>
+        <v>116.58803334230403</v>
       </c>
       <c r="B427">
-        <v>40.231812410916675</v>
+        <v>40.238064175610766</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>116.60964674164325</v>
+        <v>116.58803371262039</v>
       </c>
       <c r="B428">
-        <v>40.231843035251053</v>
+        <v>40.238066217793651</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>116.60964561513073</v>
+        <v>116.58803685990109</v>
       </c>
       <c r="B429">
-        <v>40.231873659586149</v>
+        <v>40.238073521652773</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>116.60964448861712</v>
+        <v>116.58804256314505</v>
       </c>
       <c r="B430">
-        <v>40.231904283921985</v>
+        <v>40.238079847905922</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>116.60964336210249</v>
+        <v>116.58805036031283</v>
       </c>
       <c r="B431">
-        <v>40.231934908258523</v>
+        <v>40.23808468403989</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>116.60964223558678</v>
+        <v>116.58805961972749</v>
       </c>
       <c r="B432">
-        <v>40.231965532595801</v>
+        <v>40.238087638261845</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>116.60964110907001</v>
+        <v>116.58806959124851</v>
       </c>
       <c r="B433">
-        <v>40.231996156933789</v>
+        <v>40.238088471239728</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>116.60963998255218</v>
+        <v>116.58807946704341</v>
       </c>
       <c r="B434">
-        <v>40.232026781272516</v>
+        <v>40.238087115491055</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>116.60963885603333</v>
+        <v>116.5880884470335</v>
       </c>
       <c r="B435">
-        <v>40.232057405611947</v>
+        <v>40.238083680849819</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>116.60963772951339</v>
+        <v>116.58809580371182</v>
       </c>
       <c r="B436">
-        <v>40.232088029952131</v>
+        <v>40.238078445568654</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>116.60963660299245</v>
+        <v>116.58810094108249</v>
       </c>
       <c r="B437">
-        <v>40.232118654293004</v>
+        <v>40.23807183377675</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>116.6096354764704</v>
+        <v>116.58810347692713</v>
       </c>
       <c r="B438">
-        <v>40.232149278634616</v>
+        <v>40.238058733551448</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>116.60963434994734</v>
+        <v>116.58810746597611</v>
       </c>
       <c r="B439">
-        <v>40.232179902976945</v>
+        <v>40.238089214946889</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>116.60963322342316</v>
+        <v>116.58811145502951</v>
       </c>
       <c r="B440">
-        <v>40.232210527320007</v>
+        <v>40.238119696343638</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>116.60963209689797</v>
+        <v>116.58811544408729</v>
       </c>
       <c r="B441">
-        <v>40.2322411516638</v>
+        <v>40.23815017774168</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>116.60963097037173</v>
+        <v>116.58811943314952</v>
       </c>
       <c r="B442">
-        <v>40.232271776008304</v>
+        <v>40.238180659140994</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>116.60962984384444</v>
+        <v>116.58812342221617</v>
       </c>
       <c r="B443">
-        <v>40.232302400353532</v>
+        <v>40.238211140541587</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>116.6096287173161</v>
+        <v>116.58812741128722</v>
       </c>
       <c r="B444">
-        <v>40.2323330246995</v>
+        <v>40.238241621943487</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>116.60962759078666</v>
+        <v>116.5881314003627</v>
       </c>
       <c r="B445">
-        <v>40.232363649046171</v>
+        <v>40.238272103346652</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>116.60962646425624</v>
+        <v>116.5881353894426</v>
       </c>
       <c r="B446">
-        <v>40.232394273393581</v>
+        <v>40.238302584751139</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>116.60962533772469</v>
+        <v>116.58813937852693</v>
       </c>
       <c r="B447">
-        <v>40.232424897741708</v>
+        <v>40.238333066156905</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>116.60962421119213</v>
+        <v>116.58814336761567</v>
       </c>
       <c r="B448">
-        <v>40.232455522090561</v>
+        <v>40.238363547563949</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>116.60962308465854</v>
+        <v>116.58814735670882</v>
       </c>
       <c r="B449">
-        <v>40.232486146440138</v>
+        <v>40.238394028972301</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>116.60962195812382</v>
+        <v>116.58815134580642</v>
       </c>
       <c r="B450">
-        <v>40.23251677079044</v>
+        <v>40.238424510381904</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>116.6096208315881</v>
+        <v>116.58815533490841</v>
       </c>
       <c r="B451">
-        <v>40.232547395141466</v>
+        <v>40.238454991792821</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>116.60961970505134</v>
+        <v>116.58815932401485</v>
       </c>
       <c r="B452">
-        <v>40.232578019493232</v>
+        <v>40.238485473205024</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>116.6096185785135</v>
+        <v>116.58816331312566</v>
       </c>
       <c r="B453">
-        <v>40.232608643845708</v>
+        <v>40.238515954618514</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>116.6096174519746</v>
+        <v>116.58816730224092</v>
       </c>
       <c r="B454">
-        <v>40.232639268198902</v>
+        <v>40.238546436033296</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>116.60961632543467</v>
+        <v>116.58817129136061</v>
       </c>
       <c r="B455">
-        <v>40.232669892552842</v>
+        <v>40.238576917449372</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>116.60961519889366</v>
+        <v>116.58817528048473</v>
       </c>
       <c r="B456">
-        <v>40.232700516907492</v>
+        <v>40.238607398866726</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>116.60961407235162</v>
+        <v>116.58817926961325</v>
       </c>
       <c r="B457">
-        <v>40.232731141262867</v>
+        <v>40.238637880285388</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>116.60961294580849</v>
+        <v>116.5881832587462</v>
       </c>
       <c r="B458">
-        <v>40.23276176561896</v>
+        <v>40.238668361705322</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>116.60961181926434</v>
+        <v>116.58818724788354</v>
       </c>
       <c r="B459">
-        <v>40.232792389975792</v>
+        <v>40.238698843126556</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>116.60961069271912</v>
+        <v>116.58819123702533</v>
       </c>
       <c r="B460">
-        <v>40.232823014333356</v>
+        <v>40.23872932454907</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>116.60960956617285</v>
+        <v>116.58819522617155</v>
       </c>
       <c r="B461">
-        <v>40.23285363869163</v>
+        <v>40.238759805972883</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>116.60960843962553</v>
+        <v>116.58819921532213</v>
       </c>
       <c r="B462">
-        <v>40.232884263050643</v>
+        <v>40.238790287397983</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>116.60960731307716</v>
+        <v>116.58820320447717</v>
       </c>
       <c r="B463">
-        <v>40.232914887410381</v>
+        <v>40.238820768824361</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>116.60960618652771</v>
+        <v>116.58820719363663</v>
       </c>
       <c r="B464">
-        <v>40.232945511770829</v>
+        <v>40.23885125025204</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>116.60960505997724</v>
+        <v>116.58821118280053</v>
       </c>
       <c r="B465">
-        <v>40.232976136132024</v>
+        <v>40.238881731681012</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>116.60960393342573</v>
+        <v>116.58821517196883</v>
       </c>
       <c r="B466">
-        <v>40.233006760493922</v>
+        <v>40.238912213111263</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>116.60960280687313</v>
+        <v>116.58821916114157</v>
       </c>
       <c r="B467">
-        <v>40.233037384856566</v>
+        <v>40.238942694542821</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>116.60960395560555</v>
+        <v>116.5882785789931</v>
       </c>
       <c r="B468">
-        <v>40.233045029023685</v>
+        <v>40.23863574380109</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>116.60960786880182</v>
+        <v>116.58833254160189</v>
       </c>
       <c r="B469">
-        <v>40.233052116585768</v>
+        <v>40.238651432279788</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>116.60961422944087</v>
+        <v>116.58837854408375</v>
       </c>
       <c r="B470">
-        <v>40.233058073352844</v>
+        <v>40.23867814962535</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>116.60962252222531</v>
+        <v>116.58841285951969</v>
       </c>
       <c r="B471">
-        <v>40.233062416745426</v>
+        <v>40.238713731309929</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>116.6096320753262</v>
+        <v>116.58843270778871</v>
       </c>
       <c r="B472">
-        <v>40.233064794889728</v>
+        <v>40.238755294669907</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>116.60964211481041</v>
+        <v>116.58843648082497</v>
       </c>
       <c r="B473">
-        <v>40.233065015123778</v>
+        <v>40.23879947245711</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>116.60965182733945</v>
+        <v>116.58842387291807</v>
       </c>
       <c r="B474">
-        <v>40.233063059605726</v>
+        <v>40.23884268564337</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>116.60966042606178</v>
+        <v>116.58839590549312</v>
       </c>
       <c r="B475">
-        <v>40.233059086758935</v>
+        <v>40.238881433374274</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>116.60966721435886</v>
+        <v>116.58835484435843</v>
       </c>
       <c r="B476">
-        <v>40.233053418437962</v>
+        <v>40.23891257658078</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>116.60967164228211</v>
+        <v>116.58830401612636</v>
       </c>
       <c r="B477">
-        <v>40.23304651385412</v>
+        <v>40.238933592274826</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>116.60967335110698</v>
+        <v>116.58824940543549</v>
       </c>
       <c r="B478">
-        <v>40.233038932373468</v>
+        <v>40.238632438598763</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>116.60967447763235</v>
+        <v>116.5882454162589</v>
       </c>
       <c r="B479">
-        <v>40.233008308013304</v>
+        <v>40.238601957169912</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>116.60967560415666</v>
+        <v>116.5882414270868</v>
       </c>
       <c r="B480">
-        <v>40.2329776836539</v>
+        <v>40.238571475742368</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>116.60967673067992</v>
+        <v>116.58823743791903</v>
       </c>
       <c r="B481">
-        <v>40.232947059295213</v>
+        <v>40.238540994316118</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>116.60967785720214</v>
+        <v>116.58823344875573</v>
       </c>
       <c r="B482">
-        <v>40.232916434937252</v>
+        <v>40.238510512891139</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>116.60967898372328</v>
+        <v>116.58822945959687</v>
       </c>
       <c r="B483">
-        <v>40.232885810580015</v>
+        <v>40.238480031467446</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>116.60968011024339</v>
+        <v>116.58822547044241</v>
       </c>
       <c r="B484">
-        <v>40.232855186223489</v>
+        <v>40.238449550045047</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>116.60968123676244</v>
+        <v>116.58822148129234</v>
       </c>
       <c r="B485">
-        <v>40.232824561867702</v>
+        <v>40.238419068623934</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>116.60968236328041</v>
+        <v>116.58821749214671</v>
       </c>
       <c r="B486">
-        <v>40.232793937512632</v>
+        <v>40.238388587204128</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>116.60968348979736</v>
+        <v>116.58821350300552</v>
       </c>
       <c r="B487">
-        <v>40.232763313158294</v>
+        <v>40.238358105785608</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>116.60968461631323</v>
+        <v>116.58820951386876</v>
       </c>
       <c r="B488">
-        <v>40.232732688804681</v>
+        <v>40.238327624368353</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>116.60968574282808</v>
+        <v>116.58820552473638</v>
       </c>
       <c r="B489">
-        <v>40.232702064451793</v>
+        <v>40.238297142952419</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>116.60968686934184</v>
+        <v>116.58820153560845</v>
       </c>
       <c r="B490">
-        <v>40.232671440099629</v>
+        <v>40.238266661537736</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>116.60968799585456</v>
+        <v>116.58819754648492</v>
       </c>
       <c r="B491">
-        <v>40.232640815748191</v>
+        <v>40.238236180124368</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>116.60968912236619</v>
+        <v>116.58819355736583</v>
       </c>
       <c r="B492">
-        <v>40.232610191397477</v>
+        <v>40.238205698712271</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>116.60969024887682</v>
+        <v>116.58818956825115</v>
       </c>
       <c r="B493">
-        <v>40.232579567047488</v>
+        <v>40.238175217301482</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>116.60969137538636</v>
+        <v>116.58818557914088</v>
       </c>
       <c r="B494">
-        <v>40.232548942698223</v>
+        <v>40.238144735891971</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>116.60969250189488</v>
+        <v>116.58818159003505</v>
       </c>
       <c r="B495">
-        <v>40.232518318349705</v>
+        <v>40.238114254483762</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>116.60969362840233</v>
+        <v>116.58817760093361</v>
       </c>
       <c r="B496">
-        <v>40.232487694001883</v>
+        <v>40.238083773076823</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>116.60969475490873</v>
+        <v>116.58817361183662</v>
       </c>
       <c r="B497">
-        <v>40.232457069654807</v>
+        <v>40.238053291671186</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
